--- a/biology/Zoologie/Karl_Wilhelm_von_Dalla_Torre/Karl_Wilhelm_von_Dalla_Torre.xlsx
+++ b/biology/Zoologie/Karl_Wilhelm_von_Dalla_Torre/Karl_Wilhelm_von_Dalla_Torre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Wilhelm von Dalla Torre, né le 4 juillet 1850 à Kitzbühel et mort le 6 avril 1928 à Innsbruck, est un botaniste, entomologiste et naturaliste autrichien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie les sciences naturelles à l'université d'Innsbruck et enseigne de 1874 à 1895 à Eger, Linz et au collège académique d'Innsbruck où il remarque comme élève le futur botaniste Heinrich von Handel-Mazzetti. Il devient dozent de l'université d'Innsbruck en tant qu'entomologiste en 1895, puis professeur de zoologie dans cette même université.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Catalogus hymenopterorum hucusque descriptorum systematicus et synonymicus, vol. 1-10, Leipzig, 1894-Texte en ligne vol. VI, VIII et IX
 (de) avec Anton Hartinger, Atlas der Alpenflora, Vienne, Verl. d. Dt. u. Österr. Alpenvereins, 1882-1884
